--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>230303.5693246487</v>
+        <v>225776.2418254916</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-629.8429616543508</v>
+        <v>-1375.378340566065</v>
       </c>
       <c r="C6" t="n">
-        <v>-629.8429616543508</v>
+        <v>-1375.378340566065</v>
       </c>
       <c r="D6" t="n">
-        <v>-629.8429616543508</v>
+        <v>-1375.378340566065</v>
       </c>
       <c r="E6" t="n">
-        <v>-74137.5300896541</v>
+        <v>-74579.33817960414</v>
       </c>
       <c r="F6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="G6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="H6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="I6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="J6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="K6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="L6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="M6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="N6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="O6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
       <c r="P6" t="n">
-        <v>58962.46991034595</v>
+        <v>58520.66182039586</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225776.2418254916</v>
+        <v>239502.5999629098</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,40 +26530,40 @@
         <v>-1375.378340566065</v>
       </c>
       <c r="E6" t="n">
-        <v>-74579.33817960414</v>
+        <v>-74579.33817960418</v>
       </c>
       <c r="F6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="G6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="H6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="I6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="J6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="K6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="L6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="M6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="N6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="O6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
       <c r="P6" t="n">
-        <v>58520.66182039586</v>
+        <v>58520.66182039587</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239502.5999629098</v>
+        <v>114392.7011654331</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>91381.29470172945</v>
       </c>
       <c r="C2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172942</v>
       </c>
       <c r="D2" t="n">
         <v>91381.29470172945</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-16526.05231060083</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-16526.05231060086</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-16526.05231060083</v>
       </c>
       <c r="E6" t="n">
-        <v>-74579.33817960418</v>
+        <v>-89389.35501871808</v>
       </c>
       <c r="F6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="G6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="H6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="I6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="J6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="K6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="L6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="M6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="N6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="O6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
       <c r="P6" t="n">
-        <v>58520.66182039587</v>
+        <v>43710.64498128196</v>
       </c>
     </row>
   </sheetData>
